--- a/svmx/test_lab/test_cases/backOffice/bo_excleData/data.xlsx
+++ b/svmx/test_lab/test_cases/backOffice/bo_excleData/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadavthyagaraj/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\auto\userdata\scripts\Sahi_Project\svmx\test_lab\test_cases\backOffice\bo_excleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,18 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>"Select Id, SVMXC__ProcessID__c, SVMXC__Name__c, SVMXC__Rule_Type__c, SVMXC__Parent_Object_Criteria__c from SVMXC__ServiceMax_Processes__c Where SVMXC__ProcessID__c = 'EXPR038' OR SVMXC__ProcessID__c = 'EXPR037'"</t>
-  </si>
-  <si>
-    <t>Query</t>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -79,6 +76,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -350,22 +350,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="197" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123445</v>
       </c>
     </row>
   </sheetData>
